--- a/Code/Results/Cases/Case_4_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_103/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9947638670887842</v>
+        <v>1.084220245949388</v>
       </c>
       <c r="D2">
-        <v>1.010000921023683</v>
+        <v>1.074005857132056</v>
       </c>
       <c r="E2">
-        <v>1.009870141151072</v>
+        <v>1.098084468359911</v>
       </c>
       <c r="F2">
-        <v>1.011586218988678</v>
+        <v>1.105424445632466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036269195702765</v>
+        <v>1.045971304505695</v>
       </c>
       <c r="J2">
-        <v>1.017102325915914</v>
+        <v>1.089081098627202</v>
       </c>
       <c r="K2">
-        <v>1.021322663478938</v>
+        <v>1.07669621384224</v>
       </c>
       <c r="L2">
-        <v>1.02119366074063</v>
+        <v>1.100712575745193</v>
       </c>
       <c r="M2">
-        <v>1.022886465200735</v>
+        <v>1.108034158292004</v>
       </c>
       <c r="N2">
-        <v>1.018546727881982</v>
+        <v>1.090627718706601</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01030281859079</v>
+        <v>1.086755652850841</v>
       </c>
       <c r="D3">
-        <v>1.022137603171309</v>
+        <v>1.075957790802158</v>
       </c>
       <c r="E3">
-        <v>1.025300093846548</v>
+        <v>1.100662152279938</v>
       </c>
       <c r="F3">
-        <v>1.027771579348985</v>
+        <v>1.108153581089982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04115866161775</v>
+        <v>1.046613614207576</v>
       </c>
       <c r="J3">
-        <v>1.030516505142035</v>
+        <v>1.091272028890468</v>
       </c>
       <c r="K3">
-        <v>1.032494853013101</v>
+        <v>1.078462404626961</v>
       </c>
       <c r="L3">
-        <v>1.035619174316997</v>
+        <v>1.103107657053695</v>
       </c>
       <c r="M3">
-        <v>1.038061033270529</v>
+        <v>1.110581719848995</v>
       </c>
       <c r="N3">
-        <v>1.031979956781232</v>
+        <v>1.092821760342144</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019767144764928</v>
+        <v>1.088386999326441</v>
       </c>
       <c r="D4">
-        <v>1.029530995042664</v>
+        <v>1.077212485887669</v>
       </c>
       <c r="E4">
-        <v>1.034706052547418</v>
+        <v>1.102321109918172</v>
       </c>
       <c r="F4">
-        <v>1.037641017046144</v>
+        <v>1.109910540768271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044117037398766</v>
+        <v>1.047024026027149</v>
       </c>
       <c r="J4">
-        <v>1.038678373418608</v>
+        <v>1.092680453815718</v>
       </c>
       <c r="K4">
-        <v>1.039285607165426</v>
+        <v>1.079596509649723</v>
       </c>
       <c r="L4">
-        <v>1.044402901069397</v>
+        <v>1.104648167535615</v>
       </c>
       <c r="M4">
-        <v>1.047305420402595</v>
+        <v>1.112220921855374</v>
       </c>
       <c r="N4">
-        <v>1.040153415846937</v>
+        <v>1.094232185392336</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023620538908685</v>
+        <v>1.08907066281824</v>
       </c>
       <c r="D5">
-        <v>1.032541116037991</v>
+        <v>1.077738006243968</v>
       </c>
       <c r="E5">
-        <v>1.038537444495875</v>
+        <v>1.103016442064054</v>
       </c>
       <c r="F5">
-        <v>1.041661972966354</v>
+        <v>1.1106470764706</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045316594762633</v>
+        <v>1.04719533338457</v>
       </c>
       <c r="J5">
-        <v>1.041999332582453</v>
+        <v>1.093270389416624</v>
       </c>
       <c r="K5">
-        <v>1.042046878374657</v>
+        <v>1.0800712358212</v>
       </c>
       <c r="L5">
-        <v>1.047978469501591</v>
+        <v>1.105293632205171</v>
       </c>
       <c r="M5">
-        <v>1.051069626682906</v>
+        <v>1.112907885502369</v>
       </c>
       <c r="N5">
-        <v>1.043479091153714</v>
+        <v>1.094822958769462</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024260594611419</v>
+        <v>1.089185328178443</v>
       </c>
       <c r="D6">
-        <v>1.033041086566432</v>
+        <v>1.077826130091266</v>
       </c>
       <c r="E6">
-        <v>1.039173945141149</v>
+        <v>1.103133070210766</v>
       </c>
       <c r="F6">
-        <v>1.042330012310546</v>
+        <v>1.110770623162653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045515546324655</v>
+        <v>1.047224025002471</v>
       </c>
       <c r="J6">
-        <v>1.042550820143554</v>
+        <v>1.093369316583449</v>
       </c>
       <c r="K6">
-        <v>1.042505313358467</v>
+        <v>1.080150825293064</v>
       </c>
       <c r="L6">
-        <v>1.048572331947266</v>
+        <v>1.105401883068619</v>
       </c>
       <c r="M6">
-        <v>1.051694886250726</v>
+        <v>1.113023104835601</v>
       </c>
       <c r="N6">
-        <v>1.044031361890409</v>
+        <v>1.094922026424211</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019819107946503</v>
+        <v>1.08839614286368</v>
       </c>
       <c r="D7">
-        <v>1.029571587508898</v>
+        <v>1.077219515535755</v>
       </c>
       <c r="E7">
-        <v>1.034757712210052</v>
+        <v>1.102330409133349</v>
       </c>
       <c r="F7">
-        <v>1.037695229512152</v>
+        <v>1.109920390529876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044133233433929</v>
+        <v>1.047026319854665</v>
       </c>
       <c r="J7">
-        <v>1.038723165383092</v>
+        <v>1.092688345010607</v>
       </c>
       <c r="K7">
-        <v>1.039322857566657</v>
+        <v>1.079602860971498</v>
       </c>
       <c r="L7">
-        <v>1.044451120788535</v>
+        <v>1.104656800706663</v>
       </c>
       <c r="M7">
-        <v>1.047356179591314</v>
+        <v>1.112230109498614</v>
       </c>
       <c r="N7">
-        <v>1.040198271421148</v>
+        <v>1.094240087793628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000148218883745</v>
+        <v>1.085079043651648</v>
       </c>
       <c r="D8">
-        <v>1.01420580704684</v>
+        <v>1.074667274090745</v>
       </c>
       <c r="E8">
-        <v>1.01521488387674</v>
+        <v>1.09895750086498</v>
       </c>
       <c r="F8">
-        <v>1.017192020079273</v>
+        <v>1.106348663041825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03796750823774</v>
+        <v>1.046189463897955</v>
       </c>
       <c r="J8">
-        <v>1.021752122500066</v>
+        <v>1.089823479551548</v>
       </c>
       <c r="K8">
-        <v>1.025196729380012</v>
+        <v>1.077294940216452</v>
       </c>
       <c r="L8">
-        <v>1.02619262966</v>
+        <v>1.101523955523216</v>
       </c>
       <c r="M8">
-        <v>1.028144043251336</v>
+        <v>1.108897065607461</v>
       </c>
       <c r="N8">
-        <v>1.023203127710622</v>
+        <v>1.091371153897012</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9600237097005714</v>
+        <v>1.079160665506952</v>
       </c>
       <c r="D9">
-        <v>0.9829002838233243</v>
+        <v>1.07010412259846</v>
       </c>
       <c r="E9">
-        <v>0.9754321211352801</v>
+        <v>1.09294274081736</v>
       </c>
       <c r="F9">
-        <v>0.9754765899524487</v>
+        <v>1.099983450358093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025233633201862</v>
+        <v>1.044674199271184</v>
       </c>
       <c r="J9">
-        <v>0.9870716464237925</v>
+        <v>1.084702115333644</v>
       </c>
       <c r="K9">
-        <v>0.9962770214039829</v>
+        <v>1.073159319734687</v>
       </c>
       <c r="L9">
-        <v>0.9889367815739961</v>
+        <v>1.095930106822572</v>
       </c>
       <c r="M9">
-        <v>0.9889804811813797</v>
+        <v>1.102950522652918</v>
       </c>
       <c r="N9">
-        <v>0.9884734013804146</v>
+        <v>1.086242516754489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9277130074051716</v>
+        <v>1.075162268683193</v>
       </c>
       <c r="D10">
-        <v>0.9577718618245966</v>
+        <v>1.067015062993851</v>
       </c>
       <c r="E10">
-        <v>0.9434753696765337</v>
+        <v>1.088881417718334</v>
       </c>
       <c r="F10">
-        <v>0.9419752048728078</v>
+        <v>1.095688237240138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014897402002804</v>
+        <v>1.04363564971705</v>
       </c>
       <c r="J10">
-        <v>0.9591202812205433</v>
+        <v>1.081235551925881</v>
       </c>
       <c r="K10">
-        <v>0.9729478439462566</v>
+        <v>1.070353389230157</v>
       </c>
       <c r="L10">
-        <v>0.9589461283625801</v>
+        <v>1.092148140040682</v>
       </c>
       <c r="M10">
-        <v>0.9574775817986375</v>
+        <v>1.09893330806061</v>
       </c>
       <c r="N10">
-        <v>0.9604823420325103</v>
+        <v>1.082771030429067</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9116862609501289</v>
+        <v>1.073417581753719</v>
       </c>
       <c r="D11">
-        <v>0.9453470328518163</v>
+        <v>1.065665708204038</v>
       </c>
       <c r="E11">
-        <v>0.9276509994009258</v>
+        <v>1.08710980037483</v>
       </c>
       <c r="F11">
-        <v>0.9253846851018057</v>
+        <v>1.093815241227543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00976138163169</v>
+        <v>1.043178974940675</v>
       </c>
       <c r="J11">
-        <v>0.9452577408888058</v>
+        <v>1.079721363786072</v>
       </c>
       <c r="K11">
-        <v>0.9613788621085347</v>
+        <v>1.06912621110758</v>
       </c>
       <c r="L11">
-        <v>0.9440796952135649</v>
+        <v>1.090497228145679</v>
       </c>
       <c r="M11">
-        <v>0.9418656739104783</v>
+        <v>1.097180464093219</v>
       </c>
       <c r="N11">
-        <v>0.9466001153034462</v>
+        <v>1.081254691968419</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9053252420500184</v>
+        <v>1.072767450212553</v>
       </c>
       <c r="D12">
-        <v>0.9404242151765451</v>
+        <v>1.065162675076506</v>
       </c>
       <c r="E12">
-        <v>0.9213753758442854</v>
+        <v>1.086449713520124</v>
       </c>
       <c r="F12">
-        <v>0.9188045794473582</v>
+        <v>1.093117478799204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007722978129942</v>
+        <v>1.043008276386073</v>
       </c>
       <c r="J12">
-        <v>0.9397570686346335</v>
+        <v>1.079156889572312</v>
       </c>
       <c r="K12">
-        <v>0.9567892935201405</v>
+        <v>1.068668499086374</v>
       </c>
       <c r="L12">
-        <v>0.938181615067635</v>
+        <v>1.089881941240354</v>
       </c>
       <c r="M12">
-        <v>0.9356722385107948</v>
+        <v>1.096527301428993</v>
       </c>
       <c r="N12">
-        <v>0.9410916314637371</v>
+        <v>1.08068941613653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9067104195933328</v>
+        <v>1.07290700078457</v>
       </c>
       <c r="D13">
-        <v>0.9414957684046348</v>
+        <v>1.065270660753752</v>
       </c>
       <c r="E13">
-        <v>0.9227417089165191</v>
+        <v>1.086591397372421</v>
       </c>
       <c r="F13">
-        <v>0.9202372430916739</v>
+        <v>1.093267245109246</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008166827522609</v>
+        <v>1.043044940534834</v>
       </c>
       <c r="J13">
-        <v>0.9409548120872806</v>
+        <v>1.079278064423757</v>
       </c>
       <c r="K13">
-        <v>0.9577885855348586</v>
+        <v>1.068766765942819</v>
       </c>
       <c r="L13">
-        <v>0.9394658542612229</v>
+        <v>1.090014016901058</v>
       </c>
       <c r="M13">
-        <v>0.9370207747274329</v>
+        <v>1.096667502241668</v>
       </c>
       <c r="N13">
-        <v>0.9422910758494699</v>
+        <v>1.080810763070163</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9111695685324852</v>
+        <v>1.073363884465927</v>
       </c>
       <c r="D14">
-        <v>0.9449469715848946</v>
+        <v>1.065624164828705</v>
       </c>
       <c r="E14">
-        <v>0.9271411348071698</v>
+        <v>1.08705527920056</v>
       </c>
       <c r="F14">
-        <v>0.9248500989776203</v>
+        <v>1.093757606187693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009595794147887</v>
+        <v>1.043164886880649</v>
       </c>
       <c r="J14">
-        <v>0.9448108972142674</v>
+        <v>1.079674746100234</v>
       </c>
       <c r="K14">
-        <v>0.9610060049454623</v>
+        <v>1.069088415214388</v>
       </c>
       <c r="L14">
-        <v>0.9436005510997033</v>
+        <v>1.090446410852662</v>
       </c>
       <c r="M14">
-        <v>0.941362529574845</v>
+        <v>1.097126516276538</v>
       </c>
       <c r="N14">
-        <v>0.9461526370596364</v>
+        <v>1.081208008080121</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9138589627706284</v>
+        <v>1.073645108196831</v>
       </c>
       <c r="D15">
-        <v>0.947029659324219</v>
+        <v>1.065841727193188</v>
       </c>
       <c r="E15">
-        <v>0.9297951991955254</v>
+        <v>1.087340821066324</v>
       </c>
       <c r="F15">
-        <v>0.9276328207661884</v>
+        <v>1.094059460164246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010457693663103</v>
+        <v>1.043238647461313</v>
       </c>
       <c r="J15">
-        <v>0.947136789678685</v>
+        <v>1.07991888290872</v>
       </c>
       <c r="K15">
-        <v>0.9629468321926484</v>
+        <v>1.069286342805174</v>
       </c>
       <c r="L15">
-        <v>0.9460946084699531</v>
+        <v>1.090712547403325</v>
       </c>
       <c r="M15">
-        <v>0.9439815281813287</v>
+        <v>1.097409052427484</v>
       </c>
       <c r="N15">
-        <v>0.948481832558137</v>
+        <v>1.081452491590877</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.928726165459176</v>
+        <v>1.075277770439423</v>
       </c>
       <c r="D16">
-        <v>0.9585582911014671</v>
+        <v>1.067104362621537</v>
       </c>
       <c r="E16">
-        <v>0.944476340637013</v>
+        <v>1.088998713455171</v>
       </c>
       <c r="F16">
-        <v>0.9430245814967774</v>
+        <v>1.095812258676412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015222008220853</v>
+        <v>1.043665808948449</v>
       </c>
       <c r="J16">
-        <v>0.9599967399310178</v>
+        <v>1.081335761373885</v>
       </c>
       <c r="K16">
-        <v>0.9736793757710268</v>
+        <v>1.070434571744708</v>
       </c>
       <c r="L16">
-        <v>0.9598861936955744</v>
+        <v>1.092257419804149</v>
       </c>
       <c r="M16">
-        <v>0.9584648534200293</v>
+        <v>1.099049350994302</v>
       </c>
       <c r="N16">
-        <v>0.9613600454148847</v>
+        <v>1.082871382185981</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9374492865813521</v>
+        <v>1.076298271465243</v>
       </c>
       <c r="D17">
-        <v>0.9653337177399618</v>
+        <v>1.067893191055828</v>
       </c>
       <c r="E17">
-        <v>0.9530974760870706</v>
+        <v>1.090035125717785</v>
       </c>
       <c r="F17">
-        <v>0.9520624572522451</v>
+        <v>1.096908173028777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018015949454133</v>
+        <v>1.043931873624574</v>
       </c>
       <c r="J17">
-        <v>0.9675431790194873</v>
+        <v>1.08222096916511</v>
       </c>
       <c r="K17">
-        <v>0.9799781580157202</v>
+        <v>1.071151525193762</v>
       </c>
       <c r="L17">
-        <v>0.9679810853367706</v>
+        <v>1.093222870922304</v>
       </c>
       <c r="M17">
-        <v>0.966966667749209</v>
+        <v>1.100074639785295</v>
       </c>
       <c r="N17">
-        <v>0.9689172013124486</v>
+        <v>1.083757847073805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9423496352248296</v>
+        <v>1.076892228768117</v>
       </c>
       <c r="D18">
-        <v>0.969143206510292</v>
+        <v>1.068352169264217</v>
       </c>
       <c r="E18">
-        <v>0.957942830473154</v>
+        <v>1.090638394355257</v>
       </c>
       <c r="F18">
-        <v>0.9571419540457379</v>
+        <v>1.097546138560915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019584580777715</v>
+        <v>1.044086393021943</v>
       </c>
       <c r="J18">
-        <v>0.9717825936516968</v>
+        <v>1.082736032058821</v>
       </c>
       <c r="K18">
-        <v>0.9835167093124834</v>
+        <v>1.071568539243243</v>
       </c>
       <c r="L18">
-        <v>0.9725292866170722</v>
+        <v>1.093784724037062</v>
       </c>
       <c r="M18">
-        <v>0.9717438874967864</v>
+        <v>1.100671388853467</v>
       </c>
       <c r="N18">
-        <v>0.9731626363997039</v>
+        <v>1.084273641415904</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9439910328624913</v>
+        <v>1.077094537244654</v>
       </c>
       <c r="D19">
-        <v>0.970419714480436</v>
+        <v>1.068508478575302</v>
       </c>
       <c r="E19">
-        <v>0.9595661746442666</v>
+        <v>1.090843882936975</v>
       </c>
       <c r="F19">
-        <v>0.9588437393125583</v>
+        <v>1.097763456354753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020109816468545</v>
+        <v>1.044138966857365</v>
       </c>
       <c r="J19">
-        <v>0.973202599206719</v>
+        <v>1.082911442705419</v>
       </c>
       <c r="K19">
-        <v>0.9847019472599836</v>
+        <v>1.071710532886824</v>
       </c>
       <c r="L19">
-        <v>0.9740528403323556</v>
+        <v>1.093976086641991</v>
       </c>
       <c r="M19">
-        <v>0.9733442275349063</v>
+        <v>1.100874649101774</v>
       </c>
       <c r="N19">
-        <v>0.974584658525491</v>
+        <v>1.084449301165739</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9365333740824441</v>
+        <v>1.076188914646725</v>
       </c>
       <c r="D20">
-        <v>0.9646219502315413</v>
+        <v>1.067808674713348</v>
       </c>
       <c r="E20">
-        <v>0.9521920251488467</v>
+        <v>1.089924058609727</v>
       </c>
       <c r="F20">
-        <v>0.9511132480680102</v>
+        <v>1.096790722935249</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017722677906391</v>
+        <v>1.043903397023804</v>
       </c>
       <c r="J20">
-        <v>0.9667508012747922</v>
+        <v>1.082126125919875</v>
       </c>
       <c r="K20">
-        <v>0.9793167755985318</v>
+        <v>1.071074724549387</v>
       </c>
       <c r="L20">
-        <v>0.9671310497439837</v>
+        <v>1.093119419844881</v>
       </c>
       <c r="M20">
-        <v>0.9660738624714813</v>
+        <v>1.099964769372908</v>
       </c>
       <c r="N20">
-        <v>0.9681236983004691</v>
+        <v>1.083662869140283</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9098688193892256</v>
+        <v>1.073229401524348</v>
       </c>
       <c r="D21">
-        <v>0.9439399835919837</v>
+        <v>1.065520117445121</v>
       </c>
       <c r="E21">
-        <v>0.925857659208389</v>
+        <v>1.086918734156854</v>
       </c>
       <c r="F21">
-        <v>0.9235043800589334</v>
+        <v>1.093613264219043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009178942708916</v>
+        <v>1.043129595359051</v>
       </c>
       <c r="J21">
-        <v>0.9436860154315966</v>
+        <v>1.079557989983986</v>
       </c>
       <c r="K21">
-        <v>0.9600673960561317</v>
+        <v>1.068993749934115</v>
       </c>
       <c r="L21">
-        <v>0.9423943704342559</v>
+        <v>1.090319139155049</v>
       </c>
       <c r="M21">
-        <v>0.9400959370291123</v>
+        <v>1.096991406032337</v>
       </c>
       <c r="N21">
-        <v>0.9450261578158081</v>
+        <v>1.081091086156796</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8906427137786026</v>
+        <v>1.071356584293055</v>
       </c>
       <c r="D22">
-        <v>0.9290819761212653</v>
+        <v>1.064070637487299</v>
       </c>
       <c r="E22">
-        <v>0.9069012344694972</v>
+        <v>1.085017390424898</v>
       </c>
       <c r="F22">
-        <v>0.9036262007642201</v>
+        <v>1.091603580953086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003020429658593</v>
+        <v>1.04263687859234</v>
       </c>
       <c r="J22">
-        <v>0.9270648077893328</v>
+        <v>1.077931481594696</v>
       </c>
       <c r="K22">
-        <v>0.9462026134262885</v>
+        <v>1.067674435170318</v>
       </c>
       <c r="L22">
-        <v>0.9245738202020644</v>
+        <v>1.088546511275538</v>
       </c>
       <c r="M22">
-        <v>0.9213833941678541</v>
+        <v>1.09510987351418</v>
       </c>
       <c r="N22">
-        <v>0.9283813461522131</v>
+        <v>1.079462267939029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9011192153663216</v>
+        <v>1.07235056675483</v>
       </c>
       <c r="D23">
-        <v>0.937172041879719</v>
+        <v>1.064840054852766</v>
       </c>
       <c r="E23">
-        <v>0.9172274243600556</v>
+        <v>1.086026469007487</v>
       </c>
       <c r="F23">
-        <v>0.9144551157522431</v>
+        <v>1.092670104196953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006375415898984</v>
+        <v>1.042898671662922</v>
       </c>
       <c r="J23">
-        <v>0.936120496753185</v>
+        <v>1.078794866117757</v>
       </c>
       <c r="K23">
-        <v>0.9537554963305537</v>
+        <v>1.068374881900376</v>
       </c>
       <c r="L23">
-        <v>0.934282542419936</v>
+        <v>1.089487373304049</v>
       </c>
       <c r="M23">
-        <v>0.9315779883847622</v>
+        <v>1.096108476757432</v>
       </c>
       <c r="N23">
-        <v>0.9374498952330964</v>
+        <v>1.080326878567145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9369478086176974</v>
+        <v>1.076238332248774</v>
       </c>
       <c r="D24">
-        <v>0.9649440025488402</v>
+        <v>1.067846867505949</v>
       </c>
       <c r="E24">
-        <v>0.9526017188643652</v>
+        <v>1.08997424892354</v>
       </c>
       <c r="F24">
-        <v>0.9515427415057855</v>
+        <v>1.096843797475131</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017855381143825</v>
+        <v>1.043916266448204</v>
       </c>
       <c r="J24">
-        <v>0.9671093382753331</v>
+        <v>1.082168985401981</v>
       </c>
       <c r="K24">
-        <v>0.9796160394398662</v>
+        <v>1.071109431075973</v>
       </c>
       <c r="L24">
-        <v>0.9675156737653174</v>
+        <v>1.093166168879956</v>
       </c>
       <c r="M24">
-        <v>0.9664778376948118</v>
+        <v>1.100014419048581</v>
       </c>
       <c r="N24">
-        <v>0.9684827444646755</v>
+        <v>1.08370578948777</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9712011278531671</v>
+        <v>1.080699749390412</v>
       </c>
       <c r="D25">
-        <v>0.9916125747406035</v>
+        <v>1.071291879284688</v>
       </c>
       <c r="E25">
-        <v>0.9865035327049814</v>
+        <v>1.094506508361121</v>
       </c>
       <c r="F25">
-        <v>0.9870839247056721</v>
+        <v>1.101637849632629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028796396969836</v>
+        <v>1.045070852979053</v>
       </c>
       <c r="J25">
-        <v>0.9967381379166906</v>
+        <v>1.086035096076261</v>
       </c>
       <c r="K25">
-        <v>1.004342505215307</v>
+        <v>1.074236891817656</v>
       </c>
       <c r="L25">
-        <v>0.9993150405939387</v>
+        <v>1.09738529173432</v>
       </c>
       <c r="M25">
-        <v>0.9998861107911894</v>
+        <v>1.104496895430131</v>
       </c>
       <c r="N25">
-        <v>0.9981536203999947</v>
+        <v>1.087577390482656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_103/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.084220245949388</v>
+        <v>0.9947638670887847</v>
       </c>
       <c r="D2">
-        <v>1.074005857132056</v>
+        <v>1.010000921023683</v>
       </c>
       <c r="E2">
-        <v>1.098084468359911</v>
+        <v>1.009870141151072</v>
       </c>
       <c r="F2">
-        <v>1.105424445632466</v>
+        <v>1.011586218988678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045971304505695</v>
+        <v>1.036269195702765</v>
       </c>
       <c r="J2">
-        <v>1.089081098627202</v>
+        <v>1.017102325915915</v>
       </c>
       <c r="K2">
-        <v>1.07669621384224</v>
+        <v>1.021322663478938</v>
       </c>
       <c r="L2">
-        <v>1.100712575745193</v>
+        <v>1.02119366074063</v>
       </c>
       <c r="M2">
-        <v>1.108034158292004</v>
+        <v>1.022886465200735</v>
       </c>
       <c r="N2">
-        <v>1.090627718706601</v>
+        <v>1.018546727881983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.086755652850841</v>
+        <v>1.01030281859079</v>
       </c>
       <c r="D3">
-        <v>1.075957790802158</v>
+        <v>1.022137603171308</v>
       </c>
       <c r="E3">
-        <v>1.100662152279938</v>
+        <v>1.025300093846547</v>
       </c>
       <c r="F3">
-        <v>1.108153581089982</v>
+        <v>1.027771579348985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046613614207576</v>
+        <v>1.04115866161775</v>
       </c>
       <c r="J3">
-        <v>1.091272028890468</v>
+        <v>1.030516505142035</v>
       </c>
       <c r="K3">
-        <v>1.078462404626961</v>
+        <v>1.0324948530131</v>
       </c>
       <c r="L3">
-        <v>1.103107657053695</v>
+        <v>1.035619174316997</v>
       </c>
       <c r="M3">
-        <v>1.110581719848995</v>
+        <v>1.038061033270528</v>
       </c>
       <c r="N3">
-        <v>1.092821760342144</v>
+        <v>1.031979956781232</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.088386999326441</v>
+        <v>1.01976714476493</v>
       </c>
       <c r="D4">
-        <v>1.077212485887669</v>
+        <v>1.029530995042665</v>
       </c>
       <c r="E4">
-        <v>1.102321109918172</v>
+        <v>1.03470605254742</v>
       </c>
       <c r="F4">
-        <v>1.109910540768271</v>
+        <v>1.037641017046146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047024026027149</v>
+        <v>1.044117037398767</v>
       </c>
       <c r="J4">
-        <v>1.092680453815718</v>
+        <v>1.03867837341861</v>
       </c>
       <c r="K4">
-        <v>1.079596509649723</v>
+        <v>1.039285607165427</v>
       </c>
       <c r="L4">
-        <v>1.104648167535615</v>
+        <v>1.044402901069399</v>
       </c>
       <c r="M4">
-        <v>1.112220921855374</v>
+        <v>1.047305420402597</v>
       </c>
       <c r="N4">
-        <v>1.094232185392336</v>
+        <v>1.040153415846939</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.08907066281824</v>
+        <v>1.023620538908687</v>
       </c>
       <c r="D5">
-        <v>1.077738006243968</v>
+        <v>1.032541116037992</v>
       </c>
       <c r="E5">
-        <v>1.103016442064054</v>
+        <v>1.038537444495877</v>
       </c>
       <c r="F5">
-        <v>1.1106470764706</v>
+        <v>1.041661972966356</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04719533338457</v>
+        <v>1.045316594762634</v>
       </c>
       <c r="J5">
-        <v>1.093270389416624</v>
+        <v>1.041999332582455</v>
       </c>
       <c r="K5">
-        <v>1.0800712358212</v>
+        <v>1.042046878374658</v>
       </c>
       <c r="L5">
-        <v>1.105293632205171</v>
+        <v>1.047978469501593</v>
       </c>
       <c r="M5">
-        <v>1.112907885502369</v>
+        <v>1.051069626682908</v>
       </c>
       <c r="N5">
-        <v>1.094822958769462</v>
+        <v>1.043479091153716</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.089185328178443</v>
+        <v>1.02426059461142</v>
       </c>
       <c r="D6">
-        <v>1.077826130091266</v>
+        <v>1.033041086566432</v>
       </c>
       <c r="E6">
-        <v>1.103133070210766</v>
+        <v>1.039173945141149</v>
       </c>
       <c r="F6">
-        <v>1.110770623162653</v>
+        <v>1.042330012310547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047224025002471</v>
+        <v>1.045515546324656</v>
       </c>
       <c r="J6">
-        <v>1.093369316583449</v>
+        <v>1.042550820143555</v>
       </c>
       <c r="K6">
-        <v>1.080150825293064</v>
+        <v>1.042505313358467</v>
       </c>
       <c r="L6">
-        <v>1.105401883068619</v>
+        <v>1.048572331947266</v>
       </c>
       <c r="M6">
-        <v>1.113023104835601</v>
+        <v>1.051694886250726</v>
       </c>
       <c r="N6">
-        <v>1.094922026424211</v>
+        <v>1.044031361890409</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08839614286368</v>
+        <v>1.019819107946501</v>
       </c>
       <c r="D7">
-        <v>1.077219515535755</v>
+        <v>1.029571587508897</v>
       </c>
       <c r="E7">
-        <v>1.102330409133349</v>
+        <v>1.034757712210049</v>
       </c>
       <c r="F7">
-        <v>1.109920390529876</v>
+        <v>1.03769522951215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047026319854665</v>
+        <v>1.044133233433928</v>
       </c>
       <c r="J7">
-        <v>1.092688345010607</v>
+        <v>1.03872316538309</v>
       </c>
       <c r="K7">
-        <v>1.079602860971498</v>
+        <v>1.039322857566655</v>
       </c>
       <c r="L7">
-        <v>1.104656800706663</v>
+        <v>1.044451120788533</v>
       </c>
       <c r="M7">
-        <v>1.112230109498614</v>
+        <v>1.047356179591312</v>
       </c>
       <c r="N7">
-        <v>1.094240087793628</v>
+        <v>1.040198271421146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085079043651648</v>
+        <v>1.000148218883747</v>
       </c>
       <c r="D8">
-        <v>1.074667274090745</v>
+        <v>1.014205807046842</v>
       </c>
       <c r="E8">
-        <v>1.09895750086498</v>
+        <v>1.015214883876742</v>
       </c>
       <c r="F8">
-        <v>1.106348663041825</v>
+        <v>1.017192020079275</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046189463897955</v>
+        <v>1.037967508237741</v>
       </c>
       <c r="J8">
-        <v>1.089823479551548</v>
+        <v>1.021752122500068</v>
       </c>
       <c r="K8">
-        <v>1.077294940216452</v>
+        <v>1.025196729380013</v>
       </c>
       <c r="L8">
-        <v>1.101523955523216</v>
+        <v>1.026192629660002</v>
       </c>
       <c r="M8">
-        <v>1.108897065607461</v>
+        <v>1.028144043251338</v>
       </c>
       <c r="N8">
-        <v>1.091371153897012</v>
+        <v>1.023203127710625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.079160665506952</v>
+        <v>0.9600237097005681</v>
       </c>
       <c r="D9">
-        <v>1.07010412259846</v>
+        <v>0.9829002838233217</v>
       </c>
       <c r="E9">
-        <v>1.09294274081736</v>
+        <v>0.9754321211352771</v>
       </c>
       <c r="F9">
-        <v>1.099983450358093</v>
+        <v>0.9754765899524456</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044674199271184</v>
+        <v>1.025233633201861</v>
       </c>
       <c r="J9">
-        <v>1.084702115333644</v>
+        <v>0.9870716464237894</v>
       </c>
       <c r="K9">
-        <v>1.073159319734687</v>
+        <v>0.9962770214039804</v>
       </c>
       <c r="L9">
-        <v>1.095930106822572</v>
+        <v>0.988936781573993</v>
       </c>
       <c r="M9">
-        <v>1.102950522652918</v>
+        <v>0.9889804811813764</v>
       </c>
       <c r="N9">
-        <v>1.086242516754489</v>
+        <v>0.9884734013804114</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075162268683193</v>
+        <v>0.9277130074051759</v>
       </c>
       <c r="D10">
-        <v>1.067015062993851</v>
+        <v>0.9577718618245999</v>
       </c>
       <c r="E10">
-        <v>1.088881417718334</v>
+        <v>0.9434753696765386</v>
       </c>
       <c r="F10">
-        <v>1.095688237240138</v>
+        <v>0.9419752048728128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04363564971705</v>
+        <v>1.014897402002806</v>
       </c>
       <c r="J10">
-        <v>1.081235551925881</v>
+        <v>0.9591202812205475</v>
       </c>
       <c r="K10">
-        <v>1.070353389230157</v>
+        <v>0.97294784394626</v>
       </c>
       <c r="L10">
-        <v>1.092148140040682</v>
+        <v>0.9589461283625846</v>
       </c>
       <c r="M10">
-        <v>1.09893330806061</v>
+        <v>0.9574775817986422</v>
       </c>
       <c r="N10">
-        <v>1.082771030429067</v>
+        <v>0.9604823420325145</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.073417581753719</v>
+        <v>0.9116862609501213</v>
       </c>
       <c r="D11">
-        <v>1.065665708204038</v>
+        <v>0.9453470328518102</v>
       </c>
       <c r="E11">
-        <v>1.08710980037483</v>
+        <v>0.9276509994009181</v>
       </c>
       <c r="F11">
-        <v>1.093815241227543</v>
+        <v>0.9253846851017978</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043178974940675</v>
+        <v>1.009761381631687</v>
       </c>
       <c r="J11">
-        <v>1.079721363786072</v>
+        <v>0.9452577408887985</v>
       </c>
       <c r="K11">
-        <v>1.06912621110758</v>
+        <v>0.9613788621085287</v>
       </c>
       <c r="L11">
-        <v>1.090497228145679</v>
+        <v>0.9440796952135576</v>
       </c>
       <c r="M11">
-        <v>1.097180464093219</v>
+        <v>0.9418656739104705</v>
       </c>
       <c r="N11">
-        <v>1.081254691968419</v>
+        <v>0.9466001153034387</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.072767450212553</v>
+        <v>0.9053252420500217</v>
       </c>
       <c r="D12">
-        <v>1.065162675076506</v>
+        <v>0.9404242151765478</v>
       </c>
       <c r="E12">
-        <v>1.086449713520124</v>
+        <v>0.9213753758442889</v>
       </c>
       <c r="F12">
-        <v>1.093117478799204</v>
+        <v>0.9188045794473617</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043008276386073</v>
+        <v>1.007722978129943</v>
       </c>
       <c r="J12">
-        <v>1.079156889572312</v>
+        <v>0.9397570686346366</v>
       </c>
       <c r="K12">
-        <v>1.068668499086374</v>
+        <v>0.9567892935201433</v>
       </c>
       <c r="L12">
-        <v>1.089881941240354</v>
+        <v>0.9381816150676384</v>
       </c>
       <c r="M12">
-        <v>1.096527301428993</v>
+        <v>0.9356722385107984</v>
       </c>
       <c r="N12">
-        <v>1.08068941613653</v>
+        <v>0.9410916314637402</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.07290700078457</v>
+        <v>0.9067104195933358</v>
       </c>
       <c r="D13">
-        <v>1.065270660753752</v>
+        <v>0.9414957684046373</v>
       </c>
       <c r="E13">
-        <v>1.086591397372421</v>
+        <v>0.9227417089165226</v>
       </c>
       <c r="F13">
-        <v>1.093267245109246</v>
+        <v>0.9202372430916773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043044940534834</v>
+        <v>1.008166827522611</v>
       </c>
       <c r="J13">
-        <v>1.079278064423757</v>
+        <v>0.9409548120872836</v>
       </c>
       <c r="K13">
-        <v>1.068766765942819</v>
+        <v>0.9577885855348609</v>
       </c>
       <c r="L13">
-        <v>1.090014016901058</v>
+        <v>0.9394658542612261</v>
       </c>
       <c r="M13">
-        <v>1.096667502241668</v>
+        <v>0.9370207747274365</v>
       </c>
       <c r="N13">
-        <v>1.080810763070163</v>
+        <v>0.9422910758494732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.073363884465927</v>
+        <v>0.9111695685324844</v>
       </c>
       <c r="D14">
-        <v>1.065624164828705</v>
+        <v>0.9449469715848944</v>
       </c>
       <c r="E14">
-        <v>1.08705527920056</v>
+        <v>0.9271411348071689</v>
       </c>
       <c r="F14">
-        <v>1.093757606187693</v>
+        <v>0.9248500989776192</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043164886880649</v>
+        <v>1.009595794147886</v>
       </c>
       <c r="J14">
-        <v>1.079674746100234</v>
+        <v>0.9448108972142668</v>
       </c>
       <c r="K14">
-        <v>1.069088415214388</v>
+        <v>0.961006004945462</v>
       </c>
       <c r="L14">
-        <v>1.090446410852662</v>
+        <v>0.9436005510997024</v>
       </c>
       <c r="M14">
-        <v>1.097126516276538</v>
+        <v>0.941362529574844</v>
       </c>
       <c r="N14">
-        <v>1.081208008080121</v>
+        <v>0.9461526370596357</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.073645108196831</v>
+        <v>0.9138589627706295</v>
       </c>
       <c r="D15">
-        <v>1.065841727193188</v>
+        <v>0.94702965932422</v>
       </c>
       <c r="E15">
-        <v>1.087340821066324</v>
+        <v>0.9297951991955271</v>
       </c>
       <c r="F15">
-        <v>1.094059460164246</v>
+        <v>0.9276328207661901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043238647461313</v>
+        <v>1.010457693663104</v>
       </c>
       <c r="J15">
-        <v>1.07991888290872</v>
+        <v>0.9471367896786861</v>
       </c>
       <c r="K15">
-        <v>1.069286342805174</v>
+        <v>0.9629468321926493</v>
       </c>
       <c r="L15">
-        <v>1.090712547403325</v>
+        <v>0.9460946084699546</v>
       </c>
       <c r="M15">
-        <v>1.097409052427484</v>
+        <v>0.9439815281813303</v>
       </c>
       <c r="N15">
-        <v>1.081452491590877</v>
+        <v>0.948481832558138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075277770439423</v>
+        <v>0.928726165459182</v>
       </c>
       <c r="D16">
-        <v>1.067104362621537</v>
+        <v>0.9585582911014715</v>
       </c>
       <c r="E16">
-        <v>1.088998713455171</v>
+        <v>0.9444763406370191</v>
       </c>
       <c r="F16">
-        <v>1.095812258676412</v>
+        <v>0.9430245814967835</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043665808948449</v>
+        <v>1.015222008220855</v>
       </c>
       <c r="J16">
-        <v>1.081335761373885</v>
+        <v>0.9599967399310233</v>
       </c>
       <c r="K16">
-        <v>1.070434571744708</v>
+        <v>0.9736793757710314</v>
       </c>
       <c r="L16">
-        <v>1.092257419804149</v>
+        <v>0.9598861936955805</v>
       </c>
       <c r="M16">
-        <v>1.099049350994302</v>
+        <v>0.9584648534200353</v>
       </c>
       <c r="N16">
-        <v>1.082871382185981</v>
+        <v>0.9613600454148904</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076298271465243</v>
+        <v>0.9374492865813532</v>
       </c>
       <c r="D17">
-        <v>1.067893191055828</v>
+        <v>0.9653337177399627</v>
       </c>
       <c r="E17">
-        <v>1.090035125717785</v>
+        <v>0.9530974760870723</v>
       </c>
       <c r="F17">
-        <v>1.096908173028777</v>
+        <v>0.9520624572522469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043931873624574</v>
+        <v>1.018015949454133</v>
       </c>
       <c r="J17">
-        <v>1.08222096916511</v>
+        <v>0.9675431790194886</v>
       </c>
       <c r="K17">
-        <v>1.071151525193762</v>
+        <v>0.9799781580157211</v>
       </c>
       <c r="L17">
-        <v>1.093222870922304</v>
+        <v>0.9679810853367721</v>
       </c>
       <c r="M17">
-        <v>1.100074639785295</v>
+        <v>0.9669666677492109</v>
       </c>
       <c r="N17">
-        <v>1.083757847073805</v>
+        <v>0.9689172013124498</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076892228768117</v>
+        <v>0.9423496352248237</v>
       </c>
       <c r="D18">
-        <v>1.068352169264217</v>
+        <v>0.969143206510287</v>
       </c>
       <c r="E18">
-        <v>1.090638394355257</v>
+        <v>0.9579428304731479</v>
       </c>
       <c r="F18">
-        <v>1.097546138560915</v>
+        <v>0.9571419540457319</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044086393021943</v>
+        <v>1.019584580777713</v>
       </c>
       <c r="J18">
-        <v>1.082736032058821</v>
+        <v>0.9717825936516913</v>
       </c>
       <c r="K18">
-        <v>1.071568539243243</v>
+        <v>0.9835167093124787</v>
       </c>
       <c r="L18">
-        <v>1.093784724037062</v>
+        <v>0.9725292866170662</v>
       </c>
       <c r="M18">
-        <v>1.100671388853467</v>
+        <v>0.9717438874967805</v>
       </c>
       <c r="N18">
-        <v>1.084273641415904</v>
+        <v>0.9731626363996979</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077094537244654</v>
+        <v>0.9439910328624905</v>
       </c>
       <c r="D19">
-        <v>1.068508478575302</v>
+        <v>0.9704197144804352</v>
       </c>
       <c r="E19">
-        <v>1.090843882936975</v>
+        <v>0.9595661746442663</v>
       </c>
       <c r="F19">
-        <v>1.097763456354753</v>
+        <v>0.9588437393125578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044138966857365</v>
+        <v>1.020109816468544</v>
       </c>
       <c r="J19">
-        <v>1.082911442705419</v>
+        <v>0.9732025992067185</v>
       </c>
       <c r="K19">
-        <v>1.071710532886824</v>
+        <v>0.9847019472599831</v>
       </c>
       <c r="L19">
-        <v>1.093976086641991</v>
+        <v>0.974052840332355</v>
       </c>
       <c r="M19">
-        <v>1.100874649101774</v>
+        <v>0.9733442275349061</v>
       </c>
       <c r="N19">
-        <v>1.084449301165739</v>
+        <v>0.9745846585254903</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076188914646725</v>
+        <v>0.9365333740824462</v>
       </c>
       <c r="D20">
-        <v>1.067808674713348</v>
+        <v>0.9646219502315431</v>
       </c>
       <c r="E20">
-        <v>1.089924058609727</v>
+        <v>0.9521920251488488</v>
       </c>
       <c r="F20">
-        <v>1.096790722935249</v>
+        <v>0.9511132480680126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043903397023804</v>
+        <v>1.017722677906392</v>
       </c>
       <c r="J20">
-        <v>1.082126125919875</v>
+        <v>0.9667508012747943</v>
       </c>
       <c r="K20">
-        <v>1.071074724549387</v>
+        <v>0.9793167755985337</v>
       </c>
       <c r="L20">
-        <v>1.093119419844881</v>
+        <v>0.9671310497439858</v>
       </c>
       <c r="M20">
-        <v>1.099964769372908</v>
+        <v>0.9660738624714835</v>
       </c>
       <c r="N20">
-        <v>1.083662869140283</v>
+        <v>0.9681236983004713</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073229401524348</v>
+        <v>0.9098688193892206</v>
       </c>
       <c r="D21">
-        <v>1.065520117445121</v>
+        <v>0.9439399835919798</v>
       </c>
       <c r="E21">
-        <v>1.086918734156854</v>
+        <v>0.9258576592083838</v>
       </c>
       <c r="F21">
-        <v>1.093613264219043</v>
+        <v>0.9235043800589283</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043129595359051</v>
+        <v>1.009178942708914</v>
       </c>
       <c r="J21">
-        <v>1.079557989983986</v>
+        <v>0.943686015431592</v>
       </c>
       <c r="K21">
-        <v>1.068993749934115</v>
+        <v>0.9600673960561278</v>
       </c>
       <c r="L21">
-        <v>1.090319139155049</v>
+        <v>0.9423943704342509</v>
       </c>
       <c r="M21">
-        <v>1.096991406032337</v>
+        <v>0.9400959370291074</v>
       </c>
       <c r="N21">
-        <v>1.081091086156796</v>
+        <v>0.9450261578158039</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.071356584293055</v>
+        <v>0.8906427137786052</v>
       </c>
       <c r="D22">
-        <v>1.064070637487299</v>
+        <v>0.9290819761212672</v>
       </c>
       <c r="E22">
-        <v>1.085017390424898</v>
+        <v>0.9069012344694998</v>
       </c>
       <c r="F22">
-        <v>1.091603580953086</v>
+        <v>0.9036262007642231</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04263687859234</v>
+        <v>1.003020429658594</v>
       </c>
       <c r="J22">
-        <v>1.077931481594696</v>
+        <v>0.927064807789335</v>
       </c>
       <c r="K22">
-        <v>1.067674435170318</v>
+        <v>0.9462026134262903</v>
       </c>
       <c r="L22">
-        <v>1.088546511275538</v>
+        <v>0.9245738202020671</v>
       </c>
       <c r="M22">
-        <v>1.09510987351418</v>
+        <v>0.921383394167857</v>
       </c>
       <c r="N22">
-        <v>1.079462267939029</v>
+        <v>0.9283813461522158</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.07235056675483</v>
+        <v>0.9011192153663216</v>
       </c>
       <c r="D23">
-        <v>1.064840054852766</v>
+        <v>0.937172041879719</v>
       </c>
       <c r="E23">
-        <v>1.086026469007487</v>
+        <v>0.9172274243600558</v>
       </c>
       <c r="F23">
-        <v>1.092670104196953</v>
+        <v>0.9144551157522429</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042898671662922</v>
+        <v>1.006375415898984</v>
       </c>
       <c r="J23">
-        <v>1.078794866117757</v>
+        <v>0.936120496753185</v>
       </c>
       <c r="K23">
-        <v>1.068374881900376</v>
+        <v>0.9537554963305536</v>
       </c>
       <c r="L23">
-        <v>1.089487373304049</v>
+        <v>0.9342825424199361</v>
       </c>
       <c r="M23">
-        <v>1.096108476757432</v>
+        <v>0.9315779883847625</v>
       </c>
       <c r="N23">
-        <v>1.080326878567145</v>
+        <v>0.9374498952330963</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076238332248774</v>
+        <v>0.9369478086176999</v>
       </c>
       <c r="D24">
-        <v>1.067846867505949</v>
+        <v>0.9649440025488421</v>
       </c>
       <c r="E24">
-        <v>1.08997424892354</v>
+        <v>0.9526017188643675</v>
       </c>
       <c r="F24">
-        <v>1.096843797475131</v>
+        <v>0.9515427415057882</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043916266448204</v>
+        <v>1.017855381143826</v>
       </c>
       <c r="J24">
-        <v>1.082168985401981</v>
+        <v>0.9671093382753352</v>
       </c>
       <c r="K24">
-        <v>1.071109431075973</v>
+        <v>0.9796160394398681</v>
       </c>
       <c r="L24">
-        <v>1.093166168879956</v>
+        <v>0.9675156737653197</v>
       </c>
       <c r="M24">
-        <v>1.100014419048581</v>
+        <v>0.9664778376948143</v>
       </c>
       <c r="N24">
-        <v>1.08370578948777</v>
+        <v>0.9684827444646779</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.080699749390412</v>
+        <v>0.9712011278531643</v>
       </c>
       <c r="D25">
-        <v>1.071291879284688</v>
+        <v>0.9916125747406009</v>
       </c>
       <c r="E25">
-        <v>1.094506508361121</v>
+        <v>0.9865035327049783</v>
       </c>
       <c r="F25">
-        <v>1.101637849632629</v>
+        <v>0.987083924705669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045070852979053</v>
+        <v>1.028796396969835</v>
       </c>
       <c r="J25">
-        <v>1.086035096076261</v>
+        <v>0.996738137916688</v>
       </c>
       <c r="K25">
-        <v>1.074236891817656</v>
+        <v>1.004342505215304</v>
       </c>
       <c r="L25">
-        <v>1.09738529173432</v>
+        <v>0.9993150405939357</v>
       </c>
       <c r="M25">
-        <v>1.104496895430131</v>
+        <v>0.9998861107911863</v>
       </c>
       <c r="N25">
-        <v>1.087577390482656</v>
+        <v>0.9981536203999918</v>
       </c>
     </row>
   </sheetData>
